--- a/biology/Zoologie/Colias_occidentalis/Colias_occidentalis.xlsx
+++ b/biology/Zoologie/Colias_occidentalis/Colias_occidentalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colias occidentalis est un  insecte lépidoptère de la famille des Pieridae de la sous-famille des Coliadinae et du genre Colias.
 </t>
@@ -511,16 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Colias occidentalis  a été nommé par Samuel Hubbard Scudder en 1862.
-Synonyme : Eurymus occidentalis ; Dyar, 1903[1].
-Noms vernaculaires
-Colias occidentalis  se nomme Western Sulphur ou Golden Sulfur en anglais.
-Sous-espèces
-Colias occidentalis  occidentalis en Colombie-Britannique, dans l'État de Washington et dans l'Oregon.
-Colias occidentalis chrysomelas (H. Edwards, 1877) en Californie et dans l'Oregon.
-Colias occidentalis sullivani (Hammond et McCorkle, 2003) dans l'Oregon[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias occidentalis  a été nommé par Samuel Hubbard Scudder en 1862.
+Synonyme : Eurymus occidentalis ; Dyar, 1903.
+</t>
         </is>
       </c>
     </row>
@@ -545,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colias occidentalis est un papillon de taille moyenne (son envergure varie de 43 à 63 mm). Le dessus du mâle est jaune à large bordure noire et le dessus de la femelle est jaune plus pâle avec une bordure moins foncée.
-Le revers est de couleur jaune à frange rose avec aux postérieures un point discoïdal blanc cerclé de rose[2].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias occidentalis  se nomme Western Sulphur ou Golden Sulfur en anglais.
 </t>
         </is>
       </c>
@@ -577,17 +591,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Colias occidentalis vole de fin mai à début juillet, en une seule génération[2].
-Il hiverne au dernier stade de chenille[3].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Lathyrus  dont Lathyrus rigidus, des Thermopsis, Hedysarum, des Lupinus et Melilotus alba[1],[3].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Colias occidentalis  occidentalis en Colombie-Britannique, dans l'État de Washington et dans l'Oregon.
+Colias occidentalis chrysomelas (H. Edwards, 1877) en Californie et dans l'Oregon.
+Colias occidentalis sullivani (Hammond et McCorkle, 2003) dans l'Oregon.</t>
         </is>
       </c>
     </row>
@@ -612,16 +629,197 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias occidentalis est un papillon de taille moyenne (son envergure varie de 43 à 63 mm). Le dessus du mâle est jaune à large bordure noire et le dessus de la femelle est jaune plus pâle avec une bordure moins foncée.
+Le revers est de couleur jaune à frange rose avec aux postérieures un point discoïdal blanc cerclé de rose.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Colias_occidentalis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_occidentalis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias occidentalis vole de fin mai à début juillet, en une seule génération.
+Il hiverne au dernier stade de chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Colias_occidentalis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_occidentalis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Lathyrus  dont Lathyrus rigidus, des Thermopsis, Hedysarum, des Lupinus et Melilotus alba,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Colias_occidentalis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_occidentalis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colias occidentalis est présent sur la côte nord-ouest de l'Amérique du Nord, en Colombie-Britannique, dans l'État de Washington, le centre de l'Utah, l'Oregon et la Californie[1],[3].
-Biotope
-Colias  occidentalis réside près des forêts de conifères[2].
-Protection
-Colias occidentalis chrysomelas est protégé[4].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias occidentalis est présent sur la côte nord-ouest de l'Amérique du Nord, en Colombie-Britannique, dans l'État de Washington, le centre de l'Utah, l'Oregon et la Californie,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Colias_occidentalis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_occidentalis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias  occidentalis réside près des forêts de conifères.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Colias_occidentalis</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_occidentalis</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias occidentalis chrysomelas est protégé.
 </t>
         </is>
       </c>
